--- a/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 12  DICIEMBRE   2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#14  ARCHIVO  2 0 2 1\CENTRAL # 12  DICIEMBRE   2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
     <sheet name="REMISIONES   NOVIEMBRE  2021 " sheetId="3" r:id="rId2"/>
     <sheet name="REMISIONES DICIEMBRE  22021  " sheetId="6" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="7" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="8" r:id="rId5"/>
+    <sheet name="NOVIEMBRE  TIENDAS  " sheetId="8" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId6"/>
     <sheet name="Hoja2" sheetId="9" r:id="rId7"/>
     <sheet name="Hoja5" sheetId="10" r:id="rId8"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="29">
   <si>
     <t>REMISION</t>
   </si>
@@ -668,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,6 +869,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,18 +926,9 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1404,13 +1407,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1457,13 +1460,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1796,24 +1799,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -2959,12 +2962,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="101">
+      <c r="D55" s="107">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="102"/>
-      <c r="F55" s="103"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="109"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2978,11 +2981,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3111,25 +3114,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4702,8 +4705,8 @@
       <c r="E64" s="84">
         <v>12020</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="116">
+      <c r="F64" s="100"/>
+      <c r="G64" s="101">
         <v>0</v>
       </c>
       <c r="H64" s="18">
@@ -4857,12 +4860,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="101">
+      <c r="E76" s="107">
         <f>E72-G72</f>
         <v>12020</v>
       </c>
-      <c r="F76" s="102"/>
-      <c r="G76" s="103"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="109"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4878,11 +4881,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="104" t="s">
+      <c r="E78" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5005,8 +5008,8 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5023,25 +5026,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5396,7 +5399,7 @@
       <c r="E18" s="20">
         <v>0</v>
       </c>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="103" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="22"/>
@@ -5480,7 +5483,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="20">
@@ -5507,10 +5510,10 @@
       <c r="E23" s="20">
         <v>1881</v>
       </c>
-      <c r="F23" s="119">
+      <c r="F23" s="104">
         <v>44558</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="105">
         <v>1881</v>
       </c>
       <c r="H23" s="18">
@@ -5526,7 +5529,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="20">
@@ -5818,12 +5821,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="101">
+      <c r="E41" s="107">
         <f>E37-G37</f>
         <v>366370</v>
       </c>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="109"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5839,11 +5842,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5978,8 +5981,8 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K24" sqref="K23:K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5990,26 +5993,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -6919,27 +6922,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -7134,11 +7137,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="111">
+      <c r="G11" s="117">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="112"/>
+      <c r="H11" s="118"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8513,11 +8516,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="113">
+      <c r="G81" s="119">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="114"/>
+      <c r="H81" s="120"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -8605,12 +8608,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="101">
+      <c r="E88" s="107">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="102"/>
-      <c r="G88" s="103"/>
+      <c r="F88" s="108"/>
+      <c r="G88" s="109"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -8627,11 +8630,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="104" t="s">
+      <c r="E90" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="104"/>
-      <c r="G90" s="104"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="110"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -8753,10 +8756,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8765,7 +8768,7 @@
     <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
     <col min="7" max="7" width="18" style="56" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
@@ -8773,25 +8776,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8821,7 +8824,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44553</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="15">
@@ -8843,7 +8846,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44553</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>123</v>
       </c>
       <c r="C5" s="24"/>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="20">
@@ -8864,11 +8867,11 @@
         <v>745</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="117"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="20">
         <f>SUM(E4:E5)</f>
         <v>1115</v>
@@ -8877,7 +8880,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="24"/>
@@ -8887,7 +8890,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44545</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="13"/>
       <c r="C9" s="24"/>
@@ -8939,7 +8942,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="18">
-        <f>E10-G10</f>
+        <f t="shared" ref="H10:H21" si="0">E10-G10</f>
         <v>7232</v>
       </c>
     </row>
@@ -8960,7 +8963,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="18">
-        <f>E11-G11</f>
+        <f t="shared" si="0"/>
         <v>7667</v>
       </c>
     </row>
@@ -8981,7 +8984,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="18">
-        <f>E12-G12</f>
+        <f t="shared" si="0"/>
         <v>11332</v>
       </c>
     </row>
@@ -9002,7 +9005,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="75">
-        <f>E13-G13</f>
+        <f t="shared" si="0"/>
         <v>7987</v>
       </c>
     </row>
@@ -9023,7 +9026,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
-        <f>E14-G14</f>
+        <f t="shared" si="0"/>
         <v>3462</v>
       </c>
     </row>
@@ -9044,7 +9047,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="18">
-        <f>E15-G15</f>
+        <f t="shared" si="0"/>
         <v>6618</v>
       </c>
     </row>
@@ -9065,7 +9068,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
-        <f>E16-G16</f>
+        <f t="shared" si="0"/>
         <v>8241</v>
       </c>
     </row>
@@ -9086,7 +9089,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="18">
-        <f>E17-G17</f>
+        <f t="shared" si="0"/>
         <v>13074</v>
       </c>
     </row>
@@ -9107,7 +9110,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
-        <f>E18-G18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9128,7 +9131,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="18">
-        <f>E19-G19</f>
+        <f t="shared" si="0"/>
         <v>218111</v>
       </c>
     </row>
@@ -9149,7 +9152,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18">
-        <f>E20-G20</f>
+        <f t="shared" si="0"/>
         <v>16564</v>
       </c>
     </row>
@@ -9170,16 +9173,18 @@
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="18">
-        <f>E21-G21</f>
+        <f t="shared" si="0"/>
         <v>6560</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20">
+      <c r="D22" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="80">
         <f>SUM(E10:E21)</f>
         <v>306848</v>
       </c>
@@ -9191,106 +9196,61 @@
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>44551</v>
-      </c>
-      <c r="B24" s="13">
-        <v>120</v>
-      </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="20">
-        <v>405</v>
-      </c>
-      <c r="F24" s="21">
-        <v>44552</v>
-      </c>
-      <c r="G24" s="22">
-        <v>405</v>
-      </c>
-      <c r="H24" s="18">
-        <f>E24-G24</f>
-        <v>0</v>
-      </c>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>44539</v>
-      </c>
-      <c r="B25" s="13">
-        <v>106</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="20">
-        <v>19750</v>
-      </c>
-      <c r="F25" s="21">
-        <v>44553</v>
-      </c>
-      <c r="G25" s="22">
-        <v>19750</v>
-      </c>
-      <c r="H25" s="18">
-        <f>E25-G25</f>
-        <v>0</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>44543</v>
-      </c>
-      <c r="B26" s="13">
-        <v>110</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="20">
-        <v>5116</v>
-      </c>
-      <c r="F26" s="21">
-        <v>44544</v>
-      </c>
-      <c r="G26" s="22">
-        <v>5116</v>
-      </c>
-      <c r="H26" s="18">
-        <f>E26-G26</f>
-        <v>0</v>
-      </c>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B27" s="13">
-        <v>127</v>
-      </c>
-      <c r="C27" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="C27" s="78"/>
       <c r="D27" s="19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E27" s="20">
-        <v>8467</v>
+        <v>405</v>
       </c>
       <c r="F27" s="21">
-        <v>44560</v>
+        <v>44552</v>
       </c>
       <c r="G27" s="22">
-        <v>8467</v>
+        <v>405</v>
       </c>
       <c r="H27" s="18">
         <f>E27-G27</f>
@@ -9299,23 +9259,23 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>44558</v>
+        <v>44539</v>
       </c>
       <c r="B28" s="13">
-        <v>128</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="20">
-        <v>3552</v>
+        <v>19750</v>
       </c>
       <c r="F28" s="21">
-        <v>44560</v>
+        <v>44553</v>
       </c>
       <c r="G28" s="22">
-        <v>3552</v>
+        <v>19750</v>
       </c>
       <c r="H28" s="18">
         <f>E28-G28</f>
@@ -9323,245 +9283,281 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="18"/>
+      <c r="A29" s="12">
+        <v>44543</v>
+      </c>
+      <c r="B29" s="13">
+        <v>110</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="20">
+        <v>5116</v>
+      </c>
+      <c r="F29" s="21">
+        <v>44544</v>
+      </c>
+      <c r="G29" s="22">
+        <v>5116</v>
+      </c>
+      <c r="H29" s="18">
+        <f>E29-G29</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="B30" s="13">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E30" s="20">
-        <v>1881</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+        <v>8467</v>
+      </c>
+      <c r="F30" s="21">
+        <v>44560</v>
+      </c>
+      <c r="G30" s="22">
+        <v>8467</v>
+      </c>
       <c r="H30" s="18">
         <f>E30-G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>44558</v>
+      </c>
+      <c r="B31" s="13">
+        <v>128</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="20">
+        <v>3552</v>
+      </c>
+      <c r="F31" s="21">
+        <v>44560</v>
+      </c>
+      <c r="G31" s="22">
+        <v>3552</v>
+      </c>
+      <c r="H31" s="18">
+        <f>E31-G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>44553</v>
+      </c>
+      <c r="B33" s="13">
+        <v>122</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="20">
         <v>1881</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>44543</v>
-      </c>
-      <c r="B32" s="13">
-        <v>109</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="20">
-        <v>363</v>
-      </c>
-      <c r="F32" s="69">
-        <v>44543</v>
-      </c>
-      <c r="G32" s="70">
-        <v>363</v>
-      </c>
-      <c r="H32" s="18">
-        <f>E32-G32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="18"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="18">
+        <f>E33-G33</f>
+        <v>1881</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>44546</v>
-      </c>
-      <c r="B34" s="13">
-        <v>115</v>
-      </c>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="20">
-        <v>44476</v>
-      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="18">
-        <f>E34-G34</f>
-        <v>44476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>44547</v>
+        <v>44543</v>
       </c>
       <c r="B35" s="13">
-        <v>116</v>
-      </c>
-      <c r="C35" s="77"/>
+        <v>109</v>
+      </c>
+      <c r="C35" s="14"/>
       <c r="D35" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="20">
-        <v>12113</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+        <v>363</v>
+      </c>
+      <c r="F35" s="69">
+        <v>44543</v>
+      </c>
+      <c r="G35" s="70">
+        <v>363</v>
+      </c>
       <c r="H35" s="18">
         <f>E35-G35</f>
-        <v>12113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>44550</v>
-      </c>
-      <c r="B36" s="13">
-        <v>118</v>
-      </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="20">
-        <v>1348</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="18">
-        <f>E36-G36</f>
-        <v>1348</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>44551</v>
+        <v>44546</v>
       </c>
       <c r="B37" s="13">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="20">
-        <v>1</v>
+        <v>44476</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="18">
-        <f>E37-G37</f>
-        <v>1</v>
+        <f t="shared" ref="H37:H42" si="1">E37-G37</f>
+        <v>44476</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>44557</v>
+        <v>44547</v>
       </c>
       <c r="B38" s="13">
-        <v>125</v>
-      </c>
-      <c r="C38" s="24"/>
+        <v>116</v>
+      </c>
+      <c r="C38" s="77"/>
       <c r="D38" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="20">
-        <v>469</v>
+        <v>12113</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
-        <f>E38-G38</f>
-        <v>469</v>
+        <f t="shared" si="1"/>
+        <v>12113</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
+        <v>44550</v>
+      </c>
+      <c r="B39" s="13">
+        <v>118</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1348</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="18">
+        <f t="shared" si="1"/>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>44551</v>
+      </c>
+      <c r="B40" s="13">
+        <v>119</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="20">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>44557</v>
+      </c>
+      <c r="B41" s="13">
+        <v>125</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="20">
+        <v>469</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="18">
+        <f t="shared" si="1"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
         <v>44559</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B42" s="13">
         <v>129</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="19" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="20">
-        <v>0</v>
-      </c>
-      <c r="F39" s="85" t="s">
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="75">
-        <f>E39-G39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60">
-        <f>SUM(E34:E39)</f>
-        <v>58407</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="18">
+      <c r="G42" s="22"/>
+      <c r="H42" s="75">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9570,141 +9566,152 @@
       <c r="B43" s="13"/>
       <c r="C43" s="24"/>
       <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
+      <c r="E43" s="60">
+        <f>SUM(E37:E42)</f>
+        <v>58407</v>
+      </c>
       <c r="F43" s="61"/>
       <c r="G43" s="62"/>
       <c r="H43" s="18">
-        <f t="shared" ref="H4:H44" si="0">E43-G43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34">
-        <v>0</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="39">
-        <f>SUM(E4:E44)</f>
-        <v>777529</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39">
-        <f>SUM(G4:G44)</f>
-        <v>42908</v>
-      </c>
-      <c r="H45" s="40">
-        <f>SUM(H4:H44)</f>
-        <v>368251</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="44"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="18">
+        <f t="shared" ref="H46:H47" si="2">E46-G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="38"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="44"/>
+      <c r="E48" s="39">
+        <f>SUM(E4:E47)</f>
+        <v>777529</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39">
+        <f>SUM(G4:G47)</f>
+        <v>42908</v>
+      </c>
+      <c r="H48" s="40">
+        <f>SUM(H4:H47)</f>
+        <v>368251</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="101">
-        <f>E45-G45</f>
-        <v>734621</v>
-      </c>
-      <c r="F49" s="102"/>
-      <c r="G49" s="103"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="45" t="s">
+        <v>6</v>
+      </c>
       <c r="F50" s="42"/>
-      <c r="G50" s="43"/>
+      <c r="G50" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="44"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="37"/>
       <c r="C51" s="38"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="44"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43"/>
+      <c r="E52" s="107">
+        <f>E48-G48</f>
+        <v>734621</v>
+      </c>
+      <c r="F52" s="108"/>
+      <c r="G52" s="109"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="50"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="43"/>
+      <c r="E54" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -9716,13 +9723,14 @@
       <c r="G55" s="43"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="43"/>
+    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="50"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -9779,6 +9787,33 @@
       <c r="G62" s="43"/>
       <c r="I62" s="2"/>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="43"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
+      <c r="I65" s="2"/>
+    </row>
   </sheetData>
   <sortState ref="A4:H31">
     <sortCondition ref="D4:D31"/>
@@ -9786,11 +9821,12 @@
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E54:G54"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -881,6 +881,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,9 +928,6 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1799,24 +1799,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -2962,12 +2962,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="107">
+      <c r="D55" s="108">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="108"/>
-      <c r="F55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="110"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2981,11 +2981,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="110" t="s">
+      <c r="D57" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3114,25 +3114,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4860,12 +4860,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="107">
+      <c r="E76" s="108">
         <f>E72-G72</f>
         <v>12020</v>
       </c>
-      <c r="F76" s="108"/>
-      <c r="G76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="110"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4881,11 +4881,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="110" t="s">
+      <c r="E78" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="110"/>
-      <c r="G78" s="110"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5026,25 +5026,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5821,12 +5821,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="107">
+      <c r="E41" s="108">
         <f>E37-G37</f>
         <v>366370</v>
       </c>
-      <c r="F41" s="108"/>
-      <c r="G41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5842,11 +5842,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="110" t="s">
+      <c r="E43" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5981,7 +5981,7 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -5993,26 +5993,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -6922,27 +6922,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -7137,11 +7137,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="117">
+      <c r="G11" s="118">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="118"/>
+      <c r="H11" s="119"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8516,11 +8516,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="119">
+      <c r="G81" s="120">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="120"/>
+      <c r="H81" s="121"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -8608,12 +8608,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="107">
+      <c r="E88" s="108">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="108"/>
-      <c r="G88" s="109"/>
+      <c r="F88" s="109"/>
+      <c r="G88" s="110"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -8630,11 +8630,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="110" t="s">
+      <c r="E90" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="110"/>
-      <c r="G90" s="110"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="111"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -8756,10 +8756,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8776,25 +8779,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9181,7 +9184,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="106" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="80">
@@ -9686,12 +9689,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="107">
+      <c r="E52" s="108">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="108"/>
-      <c r="G52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="110"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -9707,11 +9710,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="110" t="s">
+      <c r="E54" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
